--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dota2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>key=B0B7CEE0FFBD6AD9A807EC1E471D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,14 +42,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=B0B7CEE0FFBD6AD9A807EC1E471D1D2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'total_results':500, 'results_remaining':400, 'matches':'any'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常取得比赛ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.steampowered.com/IDOTA2Match_570/GetMatchHistory/v1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>key</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -62,26 +89,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>取得所有比赛</t>
+      <t>为空</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.steampowered.com/IDOTA2Match_570/GetMatchHistory/v1/?key=B0B7CEE0FFBD6AD9A807EC1E471D1D2E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed case1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed case2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'total_results':100, 'results_remaining':400, 'matches':'any'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +130,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,15 +162,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,19 +469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,39 +502,117 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>403</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dota2" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TianQi" sheetId="2" r:id="rId2"/>
+    <sheet name="TianQiget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
-  <si>
-    <t>key=B0B7CEE0FFBD6AD9A807EC1E471D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>API key:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +47,6 @@
   </si>
   <si>
     <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key=B0B7CEE0FFBD6AD9A807EC1E471D1D2E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,6 +95,44 @@
   </si>
   <si>
     <t>{'total_results':100, 'results_remaining':400, 'matches':'any'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=284c2272289938dfbff1b0c4f98b5aba</t>
+  </si>
+  <si>
+    <t>根据坐标取得天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/weather/geo</t>
+  </si>
+  <si>
+    <t>{'lon':116.39277, 'lat':39.933748, 'key':'284c2272289938dfbff1b0c4f98b5aba'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'sk':'any', 'tody':'any', 'future':'any'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key=B0B7CEE0FFBD6AD9A807EC1E471D1D2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'key':'B0B7CEE0FFBD6AD9A807EC1E471D1D2E'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://api.steampowered.com/IDOTA2Match_570/GetMatchHistory/v1/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -485,36 +515,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,22 +552,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -545,13 +575,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>403</v>
@@ -562,22 +592,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>403</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,22 +615,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -618,12 +648,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -631,12 +732,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
